--- a/Output_testing/R1_201907/Country/HKD/MN/BRAZIL_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BRAZIL_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2569.225441</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>26.16358562284309</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3096.595901</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>25.9677201986014</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2682.358797</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>21.43880376715572</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2163.87414</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25.60271041986595</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>54.90456710516585</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1489.260335</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>15.16581210339824</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1851.130103</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>15.52337796171235</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2337.345148</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>18.68127560717432</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1485.40885</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>17.57518699384988</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>15.41852453686667</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>704.225344</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.171445444798604</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1088.446877</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.127598452174505</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1729.84657</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>13.82583165346668</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1309.121835</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>15.48937926945628</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>38.15324795343295</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>403.544776</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.109479118118011</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>834.752713</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.000146476718926</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>882.184942</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.050879949032282</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>605.921712</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.169196138850024</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>16.59975051318554</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>687.401475</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>7.000120371465346</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>668.149452</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.603029447523918</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>716.797689</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.729019179838571</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>425.797439</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.037986418303209</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>1.455100534555798</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>531.40378</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.411525231091028</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>759.7903</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>6.3715197432251</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>716.475064</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.726440593382085</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>421.987373</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.992906154772458</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-5.680659748390848</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>405.386105</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.128230204800608</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>434.38682</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.64272115585941</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>528.508293</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.224112596574992</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>284.374995</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.364692295659963</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-7.607747927485398</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>337.465869</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.436567697590634</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>402.052007</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.371564891528329</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>347.722197</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.779176281452277</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>212.775089</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.517530427267921</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>12.77706083051393</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>66.371854</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.6758946324305221</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>73.449816</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6159422577259157</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>89.84457999999999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7180845166264771</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>126.576383</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.497637233163221</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>145.8661107527755</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>265.962899</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.708420588337958</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>250.630049</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.101756636599565</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>215.240249</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.720311789111013</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>124.974388</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.478682612226222</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>7.741882032945591</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2359.604332</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>24.02891898512595</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2465.40519</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>20.67462277833059</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>2265.376406</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>18.10606406618558</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1290.926321</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>15.27409203658486</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-6.769570995332542</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,493 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.721869</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>5.671505553584398</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.271884</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>9.587830425865139</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>18.356654</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>62.19104499153102</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>7.2409</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>46.48105442389754</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-47.86841809890105</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>4.759097</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>37.39078013538031</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>2.153263</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>16.23192091911656</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>3.514272</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.90610489604901</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>5.014384</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>32.18852015720712</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>54.88650505628336</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.66138</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>5.196261846719625</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.689992</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.201359786901588</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.928994</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.147365944298039</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.586877</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.18653982254019</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>70.84540038198266</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.8001819999999999</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>6.286787016589257</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.28016</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>9.650217313823836</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.206666</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.088099034592621</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.808572</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.190415436981547</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>0.4487179487179471</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.782917447005185</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.3836032003781271</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.9778292860756929</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.316951440075619</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.081513078393329</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>3.389165</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>26.62764036066636</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.938011</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>7.070998931975074</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.68455</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>5.707136215591555</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.894283187857371</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-89.26640861195948</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.9937385272591224</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.40222</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>10.57034099002473</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.937561</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.176390334170096</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2169830548186806</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-96.39468791897275</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.1089880920767103</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.1454663819404282</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.10081461064816</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.1797514792329654</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>88.45144356955382</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>2.207123</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>17.34069526734609</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.381066</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>40.56403596427695</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.858101</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>9.683043973119492</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.481070471990461</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-93.06881977007667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1786,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>2569.225441</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>26.19754155180725</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3096.592981</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>25.99661537673213</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>2682.358797</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>21.48949999643412</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2163.87414</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.64998826747052</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>54.90456710516585</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1489.260335</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>15.18549477403407</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1851.130103</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>15.54066601431127</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2337.345148</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.72545112376005</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1485.40885</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>17.60764125352359</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>15.41852453686667</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>704.0988610000001</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.179463068234368</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1087.044657</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.125991700799734</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1728.909009</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>13.85101433271845</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1309.088033</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>15.51758120624153</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>38.28650418221149</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>403.495951</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.114314677731888</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>834.6229980000001</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>7.006853402016761</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>882.184942</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.067553128673872</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>605.716555</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.180002867062621</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>16.5602713947742</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>687.401475</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>7.009205349094194</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>668.149452</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.609269421068403</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>716.797689</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.742566562100933</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>425.797439</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.047289540910635</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>1.455100534555798</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>531.40378</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.418548479700127</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>759.7903</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>6.37861556790499</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>716.475064</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>5.739981878074283</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>421.987373</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.002126032372061</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-5.680659748390848</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>405.386105</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.133587952534523</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>434.38682</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.646777976166243</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>528.508293</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.234101333960694</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>284.374995</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.370905521017035</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-7.607747927485398</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>337.465869</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.441027783845708</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>402.052007</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.375319730927923</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>347.722197</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.785748185346721</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>212.497343</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.518886960227113</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>12.62984727424359</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>66.371854</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6767718298627435</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>73.449816</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6166282193881087</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>89.84457999999999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7197825673988776</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>126.576383</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.500402763207316</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>145.8661107527755</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>265.962899</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.711935662243668</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>250.630049</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.104097317820707</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>215.240249</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.724379801572824</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>124.974388</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.481413140754253</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>7.741882032945591</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2347.051644</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>23.93210887091146</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>2453.674437</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>20.59916527286373</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>2236.797412</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>17.91992108995919</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1275.864851</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>15.12376244721332</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-6.420842863206</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2244,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>9252.822462</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>51.75716958049171</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>9881.616373000001</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>51.53066146876009</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>10411.564741</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>48.61817198598886</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>5311.527822</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>51.68325291286806</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-17.31151920501067</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>5822.177004</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>32.56729541296446</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>6586.586558</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>34.34773718623329</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7746.1604</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>36.17171558038878</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>3180.595618</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>30.94844520211079</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-32.11091595518515</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>459.144889</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>2.568301724104673</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>519.2424109999999</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.707745766631149</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>779.524747</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.640093411486615</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>333.732797</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.247351257622736</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-24.48267598840376</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>777.032098</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>4.346455606474302</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>644.0415369999999</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.358548355069495</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>590.5101079999999</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.757464675521135</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>302.403015</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.942500167489254</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-12.03001672300272</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>44.555023</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2492257784631974</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>161.207382</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.8406643928016705</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>330.869883</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.545040469597365</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>225.646758</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.195631624930747</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>27.01130654966275</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>223.47249</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.250029772969909</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>264.811598</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.380939746540329</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>246.129242</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.149332892414761</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>135.148199</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.315045083771308</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-12.73963828958475</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, UNMANUFACTURED; TOBACCO REFUSE</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>205.119486</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.147369255680126</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>16.077204</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.08383941709697008</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>53.606124</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2503208519533178</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>123.876323</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.205365300922853</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>131.0861404566389</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>140.956635</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.7884638974920465</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>170.686265</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.8900948799342825</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>172.923522</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.8074891471319265</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>83.952826</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.8168939868744238</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-31.64843787661552</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.105726</v>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.3836102380385693</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.7993517814603872</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>83.501744</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.4670806061851797</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>106.320951</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.5544425857279363</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>96.198058</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.4492094939528678</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>70.720043</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.6881338083628142</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>1.895516239804151</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>868.591559</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>4.858608365174388</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>824.491708</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.299560060319275</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>905.3286409999999</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>4.2275512535258</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>427.323839</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>4.15802887358663</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-12.96307570687469</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
